--- a/datenRF4/SFU/i = 47,75 - Abtriebswelle 14 - Geber AV Y1/L3_47,75_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 47,75 - Abtriebswelle 14 - Geber AV Y1/L3_47,75_14_AVY1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 47^J75 - Abtriebswelle 14 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{0F90696C-5C13-44FE-B1E5-0AB32371B830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{14312730-122E-414A-AB0E-FB6836988E6B}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -458,11 +452,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -727,9 +721,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,6 +759,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -881,7 +881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1075,79 +1075,79 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="45.85546875" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="45.81640625" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="61" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="56" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="11"/>
@@ -1162,7 +1162,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="72.5">
       <c r="A4" s="24"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="29.5" thickBot="1">
       <c r="A5" s="13"/>
       <c r="G5" s="16"/>
       <c r="H5" s="13">
@@ -1280,7 +1280,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="24">
         <v>1</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1430,11 +1430,13 @@
       <c r="R9" s="14"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
       <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="68">
+        <v>3</v>
+      </c>
       <c r="C10" s="46">
         <v>1</v>
       </c>
@@ -1463,7 +1465,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="13"/>
       <c r="G11" s="16"/>
       <c r="H11" s="13">
@@ -1487,7 +1489,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
       <c r="A12" s="13"/>
       <c r="G12" s="16"/>
       <c r="H12" s="13">
@@ -1511,7 +1513,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="43.5">
       <c r="A13" s="24">
         <v>1</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="13">
         <v>5</v>
       </c>
@@ -1595,7 +1597,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="13">
         <v>6</v>
       </c>
@@ -1628,7 +1630,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -1661,11 +1663,13 @@
       <c r="R16" s="14"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="13">
         <v>1</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="66">
+        <v>3</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -1694,11 +1698,13 @@
       <c r="R17" s="14"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="67">
+        <v>3</v>
+      </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
@@ -1727,7 +1733,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="16"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="43.5">
       <c r="A19" s="24">
         <v>1</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="13">
         <v>5</v>
       </c>
@@ -1811,7 +1817,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="16"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="13">
         <v>6</v>
       </c>
@@ -1844,7 +1850,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="16"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1877,11 +1883,13 @@
       <c r="R22" s="14"/>
       <c r="S22" s="16"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="29">
       <c r="A23" s="13">
         <v>1</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="66">
+        <v>3</v>
+      </c>
       <c r="C23">
         <v>1</v>
       </c>
@@ -1910,11 +1918,13 @@
       <c r="R23" s="14"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="67">
+        <v>3</v>
+      </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
@@ -1943,7 +1953,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="44" thickBot="1">
       <c r="A25" s="13"/>
       <c r="G25" s="16"/>
       <c r="H25" s="13">
@@ -1967,7 +1977,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="43.5">
       <c r="A26" s="24">
         <v>1</v>
       </c>
@@ -2020,7 +2030,7 @@
       </c>
       <c r="S26" s="16"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="13">
         <v>5</v>
       </c>
@@ -2053,7 +2063,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="16"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="13">
         <v>6</v>
       </c>
@@ -2086,7 +2096,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="1">
         <v>7</v>
       </c>
@@ -2119,11 +2129,13 @@
       <c r="R29" s="14"/>
       <c r="S29" s="16"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="29">
       <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="66">
+        <v>3</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
@@ -2152,11 +2164,13 @@
       <c r="R30" s="14"/>
       <c r="S30" s="16"/>
     </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="67">
+        <v>3</v>
+      </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
@@ -2185,7 +2199,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="16"/>
     </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
       <c r="A32" s="13"/>
       <c r="G32" s="16"/>
       <c r="H32" s="13">
@@ -2209,7 +2223,7 @@
       <c r="R32" s="14"/>
       <c r="S32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="29">
       <c r="A33" s="24">
         <v>1</v>
       </c>
@@ -2260,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="13">
         <v>5</v>
       </c>
@@ -2293,7 +2307,7 @@
       <c r="R34" s="14"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="13">
         <v>6</v>
       </c>
@@ -2326,7 +2340,7 @@
       <c r="R35" s="14"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" thickBot="1">
       <c r="A36" s="13">
         <v>7</v>
       </c>
@@ -2359,7 +2373,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="24">
         <v>1</v>
       </c>
@@ -2392,7 +2406,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
       <c r="A38" s="13">
         <v>2</v>
       </c>
@@ -2425,7 +2439,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="29">
       <c r="A39" s="24">
         <v>1</v>
       </c>
@@ -2476,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="13">
         <v>5</v>
       </c>
@@ -2503,7 +2517,7 @@
       <c r="L40" s="14"/>
       <c r="S40" s="16"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="13">
         <v>6</v>
       </c>
@@ -2532,7 +2546,7 @@
       <c r="P41" s="21"/>
       <c r="S41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" thickBot="1">
       <c r="A42" s="1">
         <v>7</v>
       </c>
@@ -2561,11 +2575,13 @@
       <c r="P42" s="21"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" thickBot="1">
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="48">
+        <v>2</v>
+      </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
@@ -2590,7 +2606,7 @@
       <c r="P43" s="21"/>
       <c r="S43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1">
       <c r="G44" s="16"/>
       <c r="H44" s="13">
         <v>7</v>
@@ -2610,7 +2626,7 @@
       <c r="Q44" s="22"/>
       <c r="S44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="43.5">
       <c r="A45" s="24">
         <v>1</v>
       </c>
@@ -2661,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="13">
         <v>5</v>
       </c>
@@ -2688,7 +2704,7 @@
       <c r="L46" s="14"/>
       <c r="S46" s="16"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="13">
         <v>6</v>
       </c>
@@ -2717,7 +2733,7 @@
       <c r="P47" s="21"/>
       <c r="S47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" thickBot="1">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -2746,11 +2762,13 @@
       <c r="P48" s="21"/>
       <c r="S48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" thickBot="1">
       <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="48">
+        <v>2</v>
+      </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
@@ -2775,7 +2793,7 @@
       <c r="P49" s="21"/>
       <c r="S49" s="16"/>
     </row>
-    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="43.5">
       <c r="G50" s="16"/>
       <c r="H50" s="13">
         <v>9</v>
@@ -2794,7 +2812,7 @@
       <c r="P50" s="21"/>
       <c r="S50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="43.5">
       <c r="G51" s="16"/>
       <c r="H51" s="13">
         <v>9</v>
@@ -2813,7 +2831,7 @@
       <c r="P51" s="21"/>
       <c r="S51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="43.5">
       <c r="G52" s="16"/>
       <c r="H52" s="13">
         <v>10</v>
@@ -2829,7 +2847,7 @@
       </c>
       <c r="S52" s="16"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="G53" s="16"/>
       <c r="H53" s="13"/>
       <c r="I53" s="14"/>
@@ -2837,7 +2855,7 @@
       <c r="K53" s="23"/>
       <c r="S53" s="16"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="G54" s="16"/>
       <c r="H54" s="13"/>
       <c r="I54" s="14"/>
@@ -2845,7 +2863,7 @@
       <c r="K54" s="23"/>
       <c r="S54" s="16"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="G55" s="16"/>
       <c r="H55" s="13"/>
       <c r="I55" s="14"/>
@@ -2853,7 +2871,7 @@
       <c r="K55" s="23"/>
       <c r="S55" s="16"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="G56" s="16"/>
       <c r="H56" s="13"/>
       <c r="I56" s="14"/>
@@ -2861,7 +2879,7 @@
       <c r="K56" s="23"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="G57" s="16"/>
       <c r="H57" s="13"/>
       <c r="I57" s="14"/>
@@ -2869,7 +2887,7 @@
       <c r="K57" s="23"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="G58" s="16"/>
       <c r="H58" s="13"/>
       <c r="I58" s="14"/>
@@ -2877,7 +2895,7 @@
       <c r="K58" s="23"/>
       <c r="S58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="43.5">
       <c r="G59" s="16"/>
       <c r="H59" s="13">
         <v>10</v>
@@ -2893,7 +2911,7 @@
       </c>
       <c r="S59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="58">
       <c r="G60" s="16"/>
       <c r="H60" s="13">
         <v>11</v>
@@ -2909,7 +2927,7 @@
       </c>
       <c r="S60" s="16"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="G61" s="16"/>
       <c r="H61" s="13"/>
       <c r="I61" s="14"/>
@@ -2917,7 +2935,7 @@
       <c r="K61" s="23"/>
       <c r="S61" s="16"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="G62" s="16"/>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
@@ -2925,7 +2943,7 @@
       <c r="K62" s="23"/>
       <c r="S62" s="16"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="G63" s="16"/>
       <c r="H63" s="13"/>
       <c r="I63" s="14"/>
@@ -2933,7 +2951,7 @@
       <c r="K63" s="23"/>
       <c r="S63" s="16"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="G64" s="16"/>
       <c r="H64" s="13"/>
       <c r="I64" s="14"/>
@@ -2941,7 +2959,7 @@
       <c r="K64" s="23"/>
       <c r="S64" s="16"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="G65" s="16"/>
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
@@ -2949,7 +2967,7 @@
       <c r="K65" s="23"/>
       <c r="S65" s="16"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="G66" s="16"/>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
@@ -2957,7 +2975,7 @@
       <c r="K66" s="23"/>
       <c r="S66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="43.5">
       <c r="G67" s="16"/>
       <c r="H67" s="13">
         <v>11</v>
@@ -2973,7 +2991,7 @@
       </c>
       <c r="S67" s="16"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="G68" s="16"/>
       <c r="H68" s="13">
         <v>12</v>
@@ -2989,7 +3007,7 @@
       </c>
       <c r="S68" s="16"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="G69" s="16"/>
       <c r="H69" s="13"/>
       <c r="I69" s="14"/>
@@ -2997,7 +3015,7 @@
       <c r="K69" s="23"/>
       <c r="S69" s="16"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="G70" s="16"/>
       <c r="H70" s="13"/>
       <c r="I70" s="14"/>
@@ -3005,7 +3023,7 @@
       <c r="K70" s="23"/>
       <c r="S70" s="16"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="G71" s="16"/>
       <c r="H71" s="13"/>
       <c r="I71" s="14"/>
@@ -3013,7 +3031,7 @@
       <c r="K71" s="23"/>
       <c r="S71" s="16"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="G72" s="16"/>
       <c r="H72" s="13"/>
       <c r="I72" s="14"/>
@@ -3021,7 +3039,7 @@
       <c r="K72" s="23"/>
       <c r="S72" s="16"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="G73" s="16"/>
       <c r="H73" s="13"/>
       <c r="I73" s="14"/>
@@ -3029,7 +3047,7 @@
       <c r="K73" s="23"/>
       <c r="S73" s="16"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="G74" s="16"/>
       <c r="H74" s="13"/>
       <c r="I74" s="14"/>
@@ -3037,7 +3055,7 @@
       <c r="K74" s="23"/>
       <c r="S74" s="16"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="13"/>
       <c r="G75" s="16"/>
       <c r="H75" s="13">
@@ -3054,7 +3072,7 @@
       </c>
       <c r="S75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="29">
       <c r="A76" s="13"/>
       <c r="G76" s="16"/>
       <c r="H76" s="13">
@@ -3075,7 +3093,7 @@
       <c r="R76" s="14"/>
       <c r="S76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="29.5" thickBot="1">
       <c r="A77" s="13"/>
       <c r="G77" s="16"/>
       <c r="H77" s="13">
@@ -3096,7 +3114,7 @@
       <c r="R77" s="14"/>
       <c r="S77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="29.5" thickBot="1">
       <c r="A78" s="44">
         <v>1</v>
       </c>
@@ -3112,7 +3130,7 @@
       <c r="E78" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F78" s="52" t="s">
+      <c r="F78" s="51" t="s">
         <v>100</v>
       </c>
       <c r="G78" s="36"/>
@@ -3144,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" thickBot="1">
       <c r="A79" s="13">
         <v>4</v>
       </c>
@@ -3160,7 +3178,7 @@
       <c r="E79" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="53" t="s">
+      <c r="F79" s="52" t="s">
         <v>86</v>
       </c>
       <c r="G79" s="37">
@@ -3176,7 +3194,7 @@
       <c r="R79" s="14"/>
       <c r="S79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" thickBot="1">
       <c r="A80" s="44">
         <v>5</v>
       </c>
@@ -3192,7 +3210,7 @@
       <c r="E80" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F80" s="52" t="s">
+      <c r="F80" s="51" t="s">
         <v>128</v>
       </c>
       <c r="G80" s="36"/>
@@ -3206,7 +3224,7 @@
       <c r="R80" s="14"/>
       <c r="S80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="29">
       <c r="A81" s="13"/>
       <c r="G81" s="16"/>
       <c r="H81" s="13">
@@ -3227,7 +3245,7 @@
       <c r="R81" s="14"/>
       <c r="S81" s="16"/>
     </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="29">
       <c r="A82" s="13"/>
       <c r="G82" s="16"/>
       <c r="H82" s="13">
@@ -3248,7 +3266,7 @@
       <c r="R82" s="14"/>
       <c r="S82" s="16"/>
     </row>
-    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="29">
       <c r="A83" s="13"/>
       <c r="G83" s="16"/>
       <c r="H83" s="13">
@@ -3269,7 +3287,7 @@
       <c r="R83" s="14"/>
       <c r="S83" s="16"/>
     </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="29">
       <c r="A84" s="13"/>
       <c r="G84" s="16"/>
       <c r="H84" s="13">
@@ -3290,7 +3308,7 @@
       <c r="R84" s="14"/>
       <c r="S84" s="16"/>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="13"/>
       <c r="G85" s="16"/>
       <c r="H85" s="13">
@@ -3311,7 +3329,7 @@
       <c r="R85" s="14"/>
       <c r="S85" s="16"/>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="13"/>
       <c r="G86" s="16"/>
       <c r="H86" s="13">
@@ -3332,7 +3350,7 @@
       <c r="R86" s="14"/>
       <c r="S86" s="16"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="13"/>
       <c r="G87" s="16"/>
       <c r="H87" s="13">
@@ -3353,7 +3371,7 @@
       <c r="R87" s="14"/>
       <c r="S87" s="16"/>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="13"/>
       <c r="G88" s="16"/>
       <c r="H88" s="13">
@@ -3374,7 +3392,7 @@
       <c r="R88" s="14"/>
       <c r="S88" s="16"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="13"/>
       <c r="G89" s="16"/>
       <c r="H89" s="13">
@@ -3395,7 +3413,7 @@
       <c r="R89" s="14"/>
       <c r="S89" s="16"/>
     </row>
-    <row r="90" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="43.5">
       <c r="A90" s="13"/>
       <c r="G90" s="16"/>
       <c r="H90" s="13">
@@ -3416,7 +3434,7 @@
       <c r="R90" s="14"/>
       <c r="S90" s="16"/>
     </row>
-    <row r="91" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="44" thickBot="1">
       <c r="A91" s="13"/>
       <c r="G91" s="16"/>
       <c r="H91" s="13">
@@ -3437,7 +3455,7 @@
       <c r="R91" s="14"/>
       <c r="S91" s="16"/>
     </row>
-    <row r="92" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="44" thickBot="1">
       <c r="A92" s="44">
         <v>1</v>
       </c>
@@ -3453,7 +3471,7 @@
       <c r="E92" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="52" t="s">
+      <c r="F92" s="51" t="s">
         <v>100</v>
       </c>
       <c r="G92" s="36"/>
@@ -3485,11 +3503,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" thickBot="1">
       <c r="A93" s="44">
         <v>4</v>
       </c>
-      <c r="B93" s="54">
+      <c r="B93" s="53">
         <v>2</v>
       </c>
       <c r="C93" s="46">
@@ -3501,7 +3519,7 @@
       <c r="E93" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F93" s="55" t="s">
+      <c r="F93" s="54" t="s">
         <v>86</v>
       </c>
       <c r="G93" s="38">
@@ -3517,7 +3535,7 @@
       <c r="R93" s="14"/>
       <c r="S93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" thickBot="1">
       <c r="A94" s="44">
         <v>5</v>
       </c>
@@ -3533,7 +3551,7 @@
       <c r="E94" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F94" s="52" t="s">
+      <c r="F94" s="51" t="s">
         <v>128</v>
       </c>
       <c r="G94" s="36"/>
@@ -3547,7 +3565,7 @@
       <c r="R94" s="14"/>
       <c r="S94" s="16"/>
     </row>
-    <row r="95" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="43.5">
       <c r="A95" s="13"/>
       <c r="G95" s="16"/>
       <c r="H95" s="13">
@@ -3568,7 +3586,7 @@
       <c r="R95" s="14"/>
       <c r="S95" s="16"/>
     </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="43.5">
       <c r="A96" s="13"/>
       <c r="G96" s="16"/>
       <c r="H96" s="13">
@@ -3589,7 +3607,7 @@
       <c r="R96" s="14"/>
       <c r="S96" s="16"/>
     </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="43.5">
       <c r="A97" s="13"/>
       <c r="G97" s="16"/>
       <c r="H97" s="13">
@@ -3610,7 +3628,7 @@
       <c r="R97" s="14"/>
       <c r="S97" s="16"/>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="43.5">
       <c r="A98" s="13"/>
       <c r="G98" s="16"/>
       <c r="H98" s="13">
@@ -3631,7 +3649,7 @@
       <c r="R98" s="14"/>
       <c r="S98" s="16"/>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="43.5">
       <c r="A99" s="13"/>
       <c r="G99" s="16"/>
       <c r="H99" s="13">
@@ -3652,7 +3670,7 @@
       <c r="R99" s="14"/>
       <c r="S99" s="16"/>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.5">
       <c r="A100" s="13"/>
       <c r="G100" s="16"/>
       <c r="H100" s="13">
@@ -3673,7 +3691,7 @@
       <c r="R100" s="14"/>
       <c r="S100" s="16"/>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="43.5">
       <c r="A101" s="13"/>
       <c r="G101" s="16"/>
       <c r="H101" s="13">
@@ -3694,7 +3712,7 @@
       <c r="R101" s="14"/>
       <c r="S101" s="16"/>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="43.5">
       <c r="A102" s="13"/>
       <c r="G102" s="16"/>
       <c r="H102" s="13">
@@ -3715,7 +3733,7 @@
       <c r="R102" s="14"/>
       <c r="S102" s="16"/>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="43.5">
       <c r="A103" s="13"/>
       <c r="G103" s="16"/>
       <c r="H103" s="13">
@@ -3736,7 +3754,7 @@
       <c r="R103" s="14"/>
       <c r="S103" s="16"/>
     </row>
-    <row r="104" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="44" thickBot="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
